--- a/test cases/DienmayXANH-Link.xlsx
+++ b/test cases/DienmayXANH-Link.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Van Lang University\BÈO MẬN LỘC - Documents\test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuong\eclipse-workspace\DienMayXanh\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_0C2030F514BE4248739D775484E8F2343AA37A8B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8492E35-0596-4884-8E43-B4BF87F0A367}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -321,7 +320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,6 +1066,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,24 +1096,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,6 +1156,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1168,54 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1497,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1513,20 +1512,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -1535,12 +1534,12 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1587,12 +1586,12 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -1601,12 +1600,12 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
@@ -1615,54 +1614,54 @@
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1670,7 +1669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1857,25 +1856,25 @@
     <mergeCell ref="F3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
       <formula1>"Positive, Negative, LooknFeel, Boundary"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B9" location="'Test case'!B4" display="TR-DMX-Link-01" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B9" location="'Test case'!B4" display="TR-DMX-Link-01"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="I16" sqref="I16:I18"/>
     </sheetView>
   </sheetViews>
@@ -1892,18 +1891,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -1938,33 +1937,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75">
+      <c r="A4" s="64">
         <v>1</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="58" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="27">
@@ -1974,17 +1973,17 @@
         <v>41</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="58"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:10" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="76"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="27">
         <v>2</v>
       </c>
@@ -1992,15 +1991,15 @@
         <v>48</v>
       </c>
       <c r="H5" s="26"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="59"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="27">
         <v>3</v>
       </c>
@@ -2008,21 +2007,21 @@
         <v>57</v>
       </c>
       <c r="H6" s="26"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="60"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:10" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75">
+      <c r="A7" s="64">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="58" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="27">
@@ -2032,17 +2031,17 @@
         <v>41</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="58"/>
+      <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="76"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="27">
         <v>2</v>
       </c>
@@ -2050,15 +2049,15 @@
         <v>48</v>
       </c>
       <c r="H8" s="26"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="59"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="27">
         <v>3</v>
       </c>
@@ -2066,21 +2065,21 @@
         <v>58</v>
       </c>
       <c r="H9" s="26"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="60"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75">
+      <c r="A10" s="64">
         <v>3</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="58" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="27">
@@ -2090,17 +2089,17 @@
         <v>41</v>
       </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="58"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="27">
         <v>2</v>
       </c>
@@ -2108,15 +2107,15 @@
         <v>48</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="1:10" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="27">
         <v>3</v>
       </c>
@@ -2124,21 +2123,21 @@
         <v>59</v>
       </c>
       <c r="H12" s="26"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="60"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75">
+      <c r="A13" s="64">
         <v>4</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="58" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="27">
@@ -2148,17 +2147,17 @@
         <v>41</v>
       </c>
       <c r="H13" s="26"/>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="58"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:10" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="27">
         <v>2</v>
       </c>
@@ -2166,15 +2165,15 @@
         <v>48</v>
       </c>
       <c r="H14" s="26"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="59"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:10" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="27">
         <v>3</v>
       </c>
@@ -2182,21 +2181,21 @@
         <v>65</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="60"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="75">
+      <c r="A16" s="64">
         <v>5</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="58" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="27">
@@ -2206,17 +2205,17 @@
         <v>41</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="58"/>
+      <c r="J16" s="74"/>
     </row>
     <row r="17" spans="1:10" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="27">
         <v>2</v>
       </c>
@@ -2224,15 +2223,15 @@
         <v>48</v>
       </c>
       <c r="H17" s="26"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="59"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="75"/>
     </row>
     <row r="18" spans="1:10" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="77"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="27">
         <v>3</v>
       </c>
@@ -2240,29 +2239,11 @@
         <v>66</v>
       </c>
       <c r="H18" s="26"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="60"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="J16:J18"/>
@@ -2278,6 +2259,24 @@
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2285,6 +2284,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007916DAE6CBAB0E478E10A9FCA3CC0E19" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f7c1022657b138b79f35a4326fa0dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73b10483-4eab-47d9-97c6-997f49bd58aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c089ff6982c627c0778789fcc62b4c69" ns2:_="">
     <xsd:import namespace="73b10483-4eab-47d9-97c6-997f49bd58aa"/>
@@ -2442,22 +2456,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B01C5A9A-DCA1-46BC-91D7-C9147F7A727F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7C7A63C-E7D0-45A1-A8DA-610D5587E17E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D346675-C3D3-4F78-8F3E-B34FD9052CCE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2473,21 +2489,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7C7A63C-E7D0-45A1-A8DA-610D5587E17E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B01C5A9A-DCA1-46BC-91D7-C9147F7A727F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>